--- a/tabela_aic.xlsx
+++ b/tabela_aic.xlsx
@@ -17,6 +17,10 @@
     <sheet name="formulas" sheetId="3" r:id="rId3"/>
     <sheet name="selecao_apendice" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">coeficientes_modelos_selecionad!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">selecao_modelos!$A$87:$H$143</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="253">
   <si>
     <t>Linear</t>
   </si>
@@ -786,6 +790,9 @@
   </si>
   <si>
     <t>Frequência do distúrbio</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -796,7 +803,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00E+0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,48 +858,83 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri Light"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria Math"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1014,17 +1056,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1111,13 +1142,64 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1132,8 +1214,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,170 +1237,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1324,116 +1267,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,7 +1280,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,14 +1325,369 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="22">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1469,12 +1695,20 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1546,11 +1780,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>182038</xdr:colOff>
+      <xdr:colOff>241384</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>105958</xdr:rowOff>
+      <xdr:rowOff>165304</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390112" cy="172227"/>
+    <xdr:ext cx="470766" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1560,8 +1794,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10489410" y="383364"/>
-              <a:ext cx="390112" cy="172227"/>
+              <a:off x="5653720" y="450164"/>
+              <a:ext cx="470766" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1649,6 +1883,352 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="1" i="0">
                   <a:latin typeface="+mj-lt"/>
+                  <a:ea typeface="Cambria Math" charset="0"/>
+                  <a:cs typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> AIC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>794996</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>221320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797737" y="501467"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250722</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="470766" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5825648" y="9849054"/>
+              <a:ext cx="470766" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" charset="0"/>
+                      <a:ea typeface="Cambria Math" charset="0"/>
+                      <a:cs typeface="Cambria Math" charset="0"/>
+                    </a:rPr>
+                    <m:t>∆</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> AIC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5825648" y="9849054"/>
+              <a:ext cx="470766" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                  <a:ea typeface="Cambria Math" charset="0"/>
+                  <a:cs typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> AIC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>794996</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>221320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808196" y="10178120"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250722</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>146628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="470766" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5838722" y="10103428"/>
+              <a:ext cx="470766" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" charset="0"/>
+                      <a:ea typeface="Cambria Math" charset="0"/>
+                      <a:cs typeface="Cambria Math" charset="0"/>
+                    </a:rPr>
+                    <m:t>∆</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> AIC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5838722" y="10103428"/>
+              <a:ext cx="470766" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
                   <a:ea typeface="Cambria Math" charset="0"/>
                   <a:cs typeface="Cambria Math" charset="0"/>
                 </a:rPr>
@@ -5489,6 +6069,2259 @@
                 <a:ea typeface="Cambria Math" charset="0"/>
                 <a:cs typeface="Cambria Math" charset="0"/>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>122766</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="681566"/>
+              <a:ext cx="694101" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,28∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="681566"/>
+              <a:ext cx="694101" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>3,28∙10〗^(−5)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619208" cy="174663"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="690033"/>
+              <a:ext cx="619208" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>9,22∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="690033"/>
+              <a:ext cx="619208" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>9,22∙10〗^4</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619208" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="1113366"/>
+              <a:ext cx="619208" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>5,04∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="1113366"/>
+              <a:ext cx="619208" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>5,04∙10〗^3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="174663"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="1113366"/>
+              <a:ext cx="694101" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,69∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="1113366"/>
+              <a:ext cx="694101" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>1,69∙10〗^(−4)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7924799" y="1113366"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,23∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7924799" y="1113366"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>1,23∙10〗^(−3)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619208" cy="174663"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="2806700"/>
+              <a:ext cx="619208" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>7,65∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9584265" y="2806700"/>
+              <a:ext cx="619208" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>7,65∙10〗^4</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="2806700"/>
+              <a:ext cx="694101" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>4,36∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="2806700"/>
+              <a:ext cx="694101" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>4,36∙10〗^(−5)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="721416" cy="177741"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="3653366"/>
+              <a:ext cx="721416" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1,6∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−5</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8754532" y="3653366"/>
+              <a:ext cx="721416" cy="177741"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>−1,6∙10〗^(−5)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7924799" y="3653366"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>4,53∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−6</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7924799" y="3653366"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>4,53∙10〗^(−6)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>302369</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7920567" y="3225800"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,24∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7920567" y="3225800"/>
+              <a:ext cx="694101" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>1,24∙10〗^(−3)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>783001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>301663</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8750300" y="3225800"/>
+              <a:ext cx="694101" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,65∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>−4</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8750300" y="3225800"/>
+              <a:ext cx="694101" cy="174663"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>1,65∙10〗^(−4)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>110069</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>729276</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>302369</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9601202" y="3225800"/>
+              <a:ext cx="619207" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>,22∙10</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9601202" y="3225800"/>
+              <a:ext cx="619207" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>5,22∙10〗^3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -10130,13 +12963,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>168761</xdr:colOff>
+      <xdr:colOff>137011</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>121833</xdr:rowOff>
+      <xdr:rowOff>26583</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="390112" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -10144,7 +12977,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3064361" y="325033"/>
+              <a:off x="3033036" y="228508"/>
               <a:ext cx="390112" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10194,7 +13027,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -10517,16 +13350,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView showRuler="0" topLeftCell="A164" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
@@ -10536,3001 +13369,3142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="82" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="82"/>
     </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="45">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="50">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="50">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="49" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="50">
         <v>4</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="49">
         <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="50">
         <v>4</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="50">
         <v>4</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="49">
         <v>2187</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="50">
         <v>3</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="50">
         <v>3</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="50">
         <v>3</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="50">
         <v>2</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="49">
         <v>4569</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="57">
         <v>2</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="60">
         <v>4</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="83">
         <v>-17313.2</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="61">
         <v>5</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="84">
         <v>-17168.3</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="84">
         <v>144.80000000000001</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="50">
         <v>4</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="49">
         <v>-15313.7</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="84">
         <v>1999.4</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="61">
         <v>4</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="49">
         <v>-14617.2</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="84">
         <v>2695.9</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="61">
         <v>3</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="84">
         <v>-14095.6</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="84">
         <v>3217.6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="61">
         <v>3</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="84">
         <v>-14067.6</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="84">
         <v>3245.6</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="61">
         <v>4</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="84">
         <v>-13906.7</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="84">
         <v>3406.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="61">
         <v>4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="49">
         <v>-13887.1</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="84">
         <v>3426.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="61">
         <v>2</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="49">
         <v>-13868.8</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="84">
         <v>3444.3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="61">
         <v>3</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="49">
         <v>-13635.3</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="84">
         <v>3677.9</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="61">
         <v>3</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="49">
         <v>-13606.3</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="84">
         <v>3706.9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="61">
         <v>4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="49">
         <v>-13581.5</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="84">
         <v>3731.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="61">
         <v>2</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="49">
         <v>-13458.3</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="84">
         <v>3854.9</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="17" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="61">
         <v>4</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="49">
         <v>-13354</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="84">
         <v>3959.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="17" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="61">
         <v>4</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="49">
         <v>-10336.6</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="84">
         <v>6976.6</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="61">
         <v>5</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="49">
         <v>-5353.7</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="84">
         <v>11959.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="27" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="50">
         <v>4</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:10" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="72"/>
+    </row>
+    <row r="32" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="85"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="57">
         <v>4</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
+      <c r="G32" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="91"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="82"/>
+    </row>
+    <row r="36" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B37" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C37" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D37" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E37" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F37" s="89">
         <v>4</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G37" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H37" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="36" t="s">
+    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D38" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E38" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F38" s="61">
         <v>4</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G38" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H38" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="94"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="17" t="s">
+    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D39" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E39" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F39" s="61">
         <v>4</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G39" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H39" s="49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="36" t="s">
+    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D40" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E40" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F40" s="61">
         <v>4</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G40" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H40" s="49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="94"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="17" t="s">
+    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D41" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E41" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F41" s="61">
         <v>3</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G41" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H41" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="94"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="17" t="s">
+    <row r="42" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D42" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E42" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F42" s="61">
         <v>3</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G42" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H42" s="49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="94"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="17" t="s">
+    <row r="43" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D43" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E43" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F43" s="61">
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G43" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H43" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="94"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="37" t="s">
+    <row r="44" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D44" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E44" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F44" s="61">
         <v>3</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G44" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H44" s="49">
         <v>2006</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="94"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="37" t="s">
+    <row r="45" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D45" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F45" s="61">
         <v>3</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G45" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H45" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="94"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="37" t="s">
+    <row r="46" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D46" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E46" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F46" s="61">
         <v>2</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G46" s="51">
         <v>-3279</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H46" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="94"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="36" t="s">
+    <row r="47" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D47" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E47" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F47" s="61">
         <v>4</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G47" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H47" s="49">
         <v>2100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="94"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="36" t="s">
+    <row r="48" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D48" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E48" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F48" s="67">
         <v>4</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G48" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H48" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="94"/>
-      <c r="B45" s="100" t="s">
+    <row r="49" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C49" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D49" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E49" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F49" s="71">
         <v>4</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G49" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H49" s="83">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="94"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="36" t="s">
+    <row r="50" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D50" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E50" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F50" s="73">
         <v>4</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G50" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H50" s="84" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="94"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="36" t="s">
+    <row r="51" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D51" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E51" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F51" s="73">
         <v>4</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G51" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H51" s="84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="94"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="36" t="s">
+    <row r="52" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D52" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E52" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F52" s="73">
         <v>4</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G52" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H52" s="84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="94"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="36" t="s">
+    <row r="53" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D53" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E53" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F53" s="73">
         <v>3</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G53" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H53" s="84">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="94"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="36" t="s">
+    <row r="54" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D54" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E54" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="44">
+      <c r="F54" s="73">
         <v>2</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G54" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H54" s="84">
         <v>2104</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="94"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="36" t="s">
+    <row r="55" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D55" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E55" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F55" s="73">
         <v>3</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G55" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H55" s="84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="94"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="36" t="s">
+    <row r="56" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D56" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E56" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F56" s="73">
         <v>5</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G56" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H56" s="84" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="94"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="36" t="s">
+    <row r="57" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D57" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E57" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F57" s="73">
         <v>3</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G57" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H57" s="84" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="94"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="36" t="s">
+    <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="62"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D58" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E58" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F58" s="73">
         <v>3</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G58" s="84">
         <v>-9508</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H58" s="84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="94"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="36" t="s">
+    <row r="59" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D59" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E59" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F59" s="73">
         <v>4</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G59" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H59" s="84" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="94"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="36" t="s">
+    <row r="60" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D60" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E60" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="44">
+      <c r="F60" s="73">
         <v>4</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G60" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H60" s="84" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="94"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="36" t="s">
+    <row r="61" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D61" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E61" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F61" s="73">
         <v>4</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G61" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H61" s="84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="94"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="36" t="s">
+    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="62"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D62" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E62" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F62" s="73">
         <v>5</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G62" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H62" s="84" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="94"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="36" t="s">
+    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="62"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D63" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E63" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="44">
+      <c r="F63" s="73">
         <v>4</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G63" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H63" s="84" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="94"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="36" t="s">
+    <row r="64" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="62"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D64" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E64" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="44">
+      <c r="F64" s="73">
         <v>4</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G64" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H64" s="84" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="94"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="36" t="s">
+    <row r="65" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D65" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E65" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="44">
+      <c r="F65" s="73">
         <v>3</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G65" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H65" s="84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="94"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="36" t="s">
+    <row r="66" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D66" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E66" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="46">
+      <c r="F66" s="76">
         <v>2</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G66" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H66" s="77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="94"/>
-      <c r="B63" s="87" t="s">
+    <row r="67" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="62"/>
+      <c r="B67" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C67" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D67" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E67" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F67" s="71">
         <v>4</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G67" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H67" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="94"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="36" t="s">
+    <row r="68" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="62"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D68" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E68" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="44">
+      <c r="F68" s="73">
         <v>4</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G68" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H68" s="84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="94"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="36" t="s">
+    <row r="69" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D69" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E69" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="44">
+      <c r="F69" s="73">
         <v>2</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G69" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H69" s="84" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="94"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="36" t="s">
+    <row r="70" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D70" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E70" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F70" s="73">
         <v>4</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G70" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H70" s="84">
         <v>1942</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="36" t="s">
+    <row r="71" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D71" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="44">
+      <c r="F71" s="73">
         <v>5</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G71" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H71" s="84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="36" t="s">
+    <row r="72" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D72" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E72" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F72" s="73">
         <v>4</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G72" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H72" s="84" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="94"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="36" t="s">
+    <row r="73" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D73" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E73" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F73" s="73">
         <v>3</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G73" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H73" s="84" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="94"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="36" t="s">
+    <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D74" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E74" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="44">
+      <c r="F74" s="73">
         <v>4</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G74" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H74" s="84" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="94"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="36" t="s">
+    <row r="75" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D75" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E75" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F75" s="73">
         <v>4</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G75" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H75" s="84" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="94"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="36" t="s">
+    <row r="76" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D76" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E76" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="44">
+      <c r="F76" s="73">
         <v>3</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G76" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H76" s="84" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="36" t="s">
+    <row r="77" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D77" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E77" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F77" s="73">
         <v>4</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="G77" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H77" s="84" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="36" t="s">
+    <row r="78" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D78" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E78" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="44">
+      <c r="F78" s="73">
         <v>3</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G78" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H78" s="84" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="36" t="s">
+    <row r="79" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D79" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E79" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="44">
+      <c r="F79" s="73">
         <v>5</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="G79" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H79" s="84" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="36" t="s">
+    <row r="80" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D80" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E80" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="44">
+      <c r="F80" s="73">
         <v>2</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G80" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H80" s="84">
         <v>6584</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="36" t="s">
+    <row r="81" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D81" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E81" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F81" s="73">
         <v>4</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G81" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H81" s="84">
         <v>6588</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="94"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="17" t="s">
+    <row r="82" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D82" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E82" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F82" s="73">
         <v>4</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G82" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H82" s="84" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="94"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="27" t="s">
+    <row r="83" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="62"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D83" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E83" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F83" s="50">
         <v>4</v>
       </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-    </row>
-    <row r="80" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="95"/>
-      <c r="B80" s="101"/>
-      <c r="C80" s="27" t="s">
+      <c r="G83" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" s="72"/>
+    </row>
+    <row r="84" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="90"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D84" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E84" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F84" s="57">
         <v>3</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="31"/>
-    </row>
-    <row r="81" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="93" t="s">
+      <c r="G84" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="H84" s="79"/>
+    </row>
+    <row r="85" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="97"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+    </row>
+    <row r="86" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="91"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+    </row>
+    <row r="87" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="99"/>
+    </row>
+    <row r="88" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" s="104"/>
+    </row>
+    <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="97" t="s">
+      <c r="B89" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C89" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D89" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E89" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F89" s="109">
         <v>4</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G89" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H89" s="108">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="94"/>
-      <c r="B82" s="98"/>
-      <c r="C82" s="36" t="s">
+    <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="111"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D90" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F90" s="114">
         <v>4</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G90" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H90" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="94"/>
-      <c r="B83" s="98"/>
-      <c r="C83" s="36" t="s">
+    <row r="91" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="111"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D91" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F91" s="114">
         <v>3</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G91" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H91" s="4">
         <v>2004</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="94"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="36" t="s">
+    <row r="92" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="111"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D92" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F92" s="114">
         <v>4</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G92" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H92" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="94"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="36" t="s">
+    <row r="93" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="111"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D93" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F93" s="114">
         <v>4</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G93" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H93" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="94"/>
-      <c r="B86" s="98"/>
-      <c r="C86" s="36" t="s">
+    <row r="94" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="111"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D94" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F94" s="114">
         <v>4</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G94" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H94" s="4">
         <v>2836</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="94"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="36" t="s">
+    <row r="95" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="111"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D95" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F95" s="114">
         <v>4</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G95" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H95" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="94"/>
-      <c r="B88" s="98"/>
-      <c r="C88" s="36" t="s">
+    <row r="96" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="111"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D96" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F96" s="114">
         <v>3</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G96" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H96" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="94"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="36" t="s">
+    <row r="97" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="111"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D97" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="25">
+      <c r="F97" s="114">
         <v>3</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G97" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H97" s="4">
         <v>3723</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="94"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="36" t="s">
+    <row r="98" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="111"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D98" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E98" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="25">
+      <c r="F98" s="114">
         <v>3</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G98" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H90" s="15" t="s">
+      <c r="H98" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="94"/>
-      <c r="B91" s="98"/>
-      <c r="C91" s="36" t="s">
+    <row r="99" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="111"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D99" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="25">
+      <c r="F99" s="114">
         <v>2</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G99" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="H99" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="94"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="36" t="s">
+    <row r="100" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="111"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D100" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F100" s="118">
         <v>2</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G100" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="H92" s="20" t="s">
+      <c r="H100" s="117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="94"/>
-      <c r="B93" s="100" t="s">
+    <row r="101" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="111"/>
+      <c r="B101" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C101" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D101" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="51" t="s">
+      <c r="E101" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F101" s="121">
         <v>4</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G101" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="H93" s="24">
+      <c r="H101" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="94"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="36" t="s">
+    <row r="102" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="111"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D102" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F102" s="123">
         <v>5</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G102" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H102" s="124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="94"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="36" t="s">
+    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="111"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D103" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="44">
+      <c r="F103" s="123">
         <v>4</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G103" s="124">
         <v>-15161</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H103" s="124" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="94"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="36" t="s">
+    <row r="104" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="111"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D104" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="44">
+      <c r="F104" s="123">
         <v>4</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G104" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H104" s="124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="94"/>
-      <c r="B97" s="98"/>
-      <c r="C97" s="36" t="s">
+    <row r="105" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="111"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D105" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="44">
+      <c r="F105" s="123">
         <v>4</v>
       </c>
-      <c r="G97" s="26" t="s">
+      <c r="G105" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="H97" s="26" t="s">
+      <c r="H105" s="124" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="94"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="36" t="s">
+    <row r="106" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="111"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D106" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F98" s="44">
+      <c r="F106" s="123">
         <v>3</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G106" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="H98" s="26" t="s">
+      <c r="H106" s="124" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="94"/>
-      <c r="B99" s="98"/>
-      <c r="C99" s="36" t="s">
+    <row r="107" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="111"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D107" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E107" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="44">
+      <c r="F107" s="123">
         <v>3</v>
       </c>
-      <c r="G99" s="26">
+      <c r="G107" s="124">
         <v>-13971</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H107" s="124" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="94"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="36" t="s">
+    <row r="108" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="111"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D108" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E108" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="44">
+      <c r="F108" s="123">
         <v>4</v>
       </c>
-      <c r="G100" s="26">
+      <c r="G108" s="124">
         <v>-13846</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H108" s="124" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="94"/>
-      <c r="B101" s="98"/>
-      <c r="C101" s="36" t="s">
+    <row r="109" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="111"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D109" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F101" s="44">
+      <c r="F109" s="123">
         <v>4</v>
       </c>
-      <c r="G101" s="26" t="s">
+      <c r="G109" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="H101" s="26">
+      <c r="H109" s="124">
         <v>2496</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="94"/>
-      <c r="B102" s="98"/>
-      <c r="C102" s="36" t="s">
+    <row r="110" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="111"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D110" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="44">
+      <c r="F110" s="123">
         <v>2</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G110" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H110" s="124" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="94"/>
-      <c r="B103" s="98"/>
-      <c r="C103" s="36" t="s">
+    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="111"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D111" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="44">
+      <c r="F111" s="123">
         <v>3</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G111" s="124">
         <v>-13572</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H111" s="124" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="94"/>
-      <c r="B104" s="98"/>
-      <c r="C104" s="36" t="s">
+    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="111"/>
+      <c r="B112" s="112"/>
+      <c r="C112" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D112" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="44">
+      <c r="F112" s="123">
         <v>3</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G112" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H112" s="124" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="94"/>
-      <c r="B105" s="98"/>
-      <c r="C105" s="36" t="s">
+    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="111"/>
+      <c r="B113" s="112"/>
+      <c r="C113" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D113" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="44">
+      <c r="F113" s="123">
         <v>4</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G113" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H113" s="124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="94"/>
-      <c r="B106" s="98"/>
-      <c r="C106" s="36" t="s">
+    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="111"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D114" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E114" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="44">
+      <c r="F114" s="123">
         <v>2</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G114" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="H106" s="26">
+      <c r="H114" s="124">
         <v>2905</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="94"/>
-      <c r="B107" s="98"/>
-      <c r="C107" s="36" t="s">
+    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="111"/>
+      <c r="B115" s="112"/>
+      <c r="C115" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D115" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F107" s="44">
+      <c r="F115" s="123">
         <v>4</v>
       </c>
-      <c r="G107" s="26" t="s">
+      <c r="G115" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H115" s="124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="94"/>
-      <c r="B108" s="98"/>
-      <c r="C108" s="36" t="s">
+    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="111"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D116" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="44">
+      <c r="F116" s="123">
         <v>5</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G116" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H116" s="124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="94"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="36" t="s">
+    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="111"/>
+      <c r="B117" s="112"/>
+      <c r="C117" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D117" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E117" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="44">
+      <c r="F117" s="123">
         <v>4</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G117" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H117" s="124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="94"/>
-      <c r="B110" s="99"/>
-      <c r="C110" s="27" t="s">
+    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="111"/>
+      <c r="B118" s="116"/>
+      <c r="C118" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D118" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="E110" s="52" t="s">
+      <c r="E118" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F110" s="53">
+      <c r="F118" s="125">
         <v>4</v>
       </c>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-    </row>
-    <row r="111" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="94"/>
-      <c r="B111" s="87" t="s">
+      <c r="G118" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="H118" s="127"/>
+    </row>
+    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="111"/>
+      <c r="B119" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C119" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D119" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E119" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F119" s="121">
         <v>3</v>
       </c>
-      <c r="G111" s="54" t="s">
+      <c r="G119" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="H111" s="54">
+      <c r="H119" s="130">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="94"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="36" t="s">
+    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="111"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D120" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="44">
+      <c r="F120" s="123">
         <v>3</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G120" s="131">
         <v>-1474</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H120" s="131" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="94"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="36" t="s">
+    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="111"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D121" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F113" s="44">
+      <c r="F121" s="123">
         <v>3</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G121" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H121" s="131">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="94"/>
-      <c r="B114" s="87"/>
-      <c r="C114" s="36" t="s">
+    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="111"/>
+      <c r="B122" s="128"/>
+      <c r="C122" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D122" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E122" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F114" s="44">
+      <c r="F122" s="123">
         <v>4</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G122" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H122" s="131" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="94"/>
-      <c r="B115" s="87"/>
-      <c r="C115" s="36" t="s">
+    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="111"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D123" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F115" s="44">
+      <c r="F123" s="123">
         <v>3</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G123" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H123" s="131" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94"/>
-      <c r="B116" s="87"/>
-      <c r="C116" s="36" t="s">
+    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="111"/>
+      <c r="B124" s="128"/>
+      <c r="C124" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D124" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="44">
+      <c r="F124" s="123">
         <v>4</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G124" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H124" s="131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="94"/>
-      <c r="B117" s="87"/>
-      <c r="C117" s="36" t="s">
+    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="111"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="D125" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F117" s="44">
+      <c r="F125" s="123">
         <v>4</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G125" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H125" s="131" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="94"/>
-      <c r="B118" s="87"/>
-      <c r="C118" s="36" t="s">
+    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="111"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D126" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F118" s="44">
+      <c r="F126" s="123">
         <v>2</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G126" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H126" s="131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="94"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="36" t="s">
+    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="111"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D127" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E127" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F119" s="44">
+      <c r="F127" s="123">
         <v>4</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G127" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H127" s="131" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="94"/>
-      <c r="B120" s="87"/>
-      <c r="C120" s="36" t="s">
+    <row r="128" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="111"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D128" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="44">
+      <c r="F128" s="123">
         <v>2</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G128" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H128" s="131" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="94"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="36" t="s">
+    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="111"/>
+      <c r="B129" s="128"/>
+      <c r="C129" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D129" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="44">
+      <c r="F129" s="123">
         <v>4</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G129" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H129" s="131">
         <v>932</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="94"/>
-      <c r="B122" s="87"/>
-      <c r="C122" s="36" t="s">
+    <row r="130" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="111"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D130" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="44">
+      <c r="F130" s="123">
         <v>3</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G130" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H130" s="131" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="94"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="36" t="s">
+    <row r="131" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="111"/>
+      <c r="B131" s="128"/>
+      <c r="C131" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D131" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E131" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F123" s="44">
+      <c r="F131" s="123">
         <v>4</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G131" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H131" s="131">
         <v>1497</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="94"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="36" t="s">
+    <row r="132" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="111"/>
+      <c r="B132" s="128"/>
+      <c r="C132" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D132" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E132" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="44">
+      <c r="F132" s="123">
         <v>4</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G132" s="131">
         <v>-42</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H132" s="131" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="94"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="36" t="s">
+    <row r="133" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="111"/>
+      <c r="B133" s="128"/>
+      <c r="C133" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D133" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E133" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="44">
+      <c r="F133" s="123">
         <v>3</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G133" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H133" s="131" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="94"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="36" t="s">
+    <row r="134" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="111"/>
+      <c r="B134" s="128"/>
+      <c r="C134" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D134" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="44">
+      <c r="F134" s="123">
         <v>3</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G134" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H134" s="131" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="94"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="36" t="s">
+    <row r="135" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="111"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D135" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F127" s="44">
+      <c r="F135" s="123">
         <v>4</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G135" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H135" s="131" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="94"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="36" t="s">
+    <row r="136" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="111"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D136" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E136" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F128" s="44">
+      <c r="F136" s="123">
         <v>3</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G136" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H136" s="131" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="94"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="36" t="s">
+    <row r="137" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="111"/>
+      <c r="B137" s="128"/>
+      <c r="C137" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D137" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E137" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F129" s="44">
+      <c r="F137" s="123">
         <v>2</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G137" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H137" s="131" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="94"/>
-      <c r="B130" s="87"/>
-      <c r="C130" s="36" t="s">
+    <row r="138" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="111"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D138" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="44">
+      <c r="F138" s="123">
         <v>3</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G138" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H138" s="131" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="94"/>
-      <c r="B131" s="87"/>
-      <c r="C131" s="36" t="s">
+    <row r="139" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="111"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D139" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="44">
+      <c r="F139" s="123">
         <v>3</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G139" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H139" s="131" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="94"/>
-      <c r="B132" s="87"/>
-      <c r="C132" s="36" t="s">
+    <row r="140" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="111"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D140" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F132" s="44">
+      <c r="F140" s="123">
         <v>3</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G140" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H140" s="131" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="94"/>
-      <c r="B133" s="87"/>
-      <c r="C133" s="36" t="s">
+    <row r="141" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="111"/>
+      <c r="B141" s="128"/>
+      <c r="C141" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D141" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E141" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F133" s="44">
+      <c r="F141" s="123">
         <v>6</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G141" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H141" s="131" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="94"/>
-      <c r="B134" s="87"/>
-      <c r="C134" s="36" t="s">
+    <row r="142" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="111"/>
+      <c r="B142" s="128"/>
+      <c r="C142" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D142" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E142" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F134" s="44">
+      <c r="F142" s="123">
         <v>4</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G142" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H142" s="131" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="95"/>
-      <c r="B135" s="101"/>
-      <c r="C135" s="55" t="s">
+    <row r="143" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="132"/>
+      <c r="B143" s="133"/>
+      <c r="C143" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="56" t="s">
+      <c r="D143" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="56" t="s">
+      <c r="E143" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="57">
+      <c r="F143" s="134">
         <v>3</v>
       </c>
-      <c r="G135" s="58" t="s">
+      <c r="G143" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="H135" s="59" t="s">
+      <c r="H143" s="136" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E141" s="1"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="3"/>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="25">
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A32"/>
-    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B37:B48"/>
     <mergeCell ref="B3:B14"/>
-    <mergeCell ref="A81:A135"/>
+    <mergeCell ref="A89:A143"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B81:B92"/>
-    <mergeCell ref="B93:B110"/>
-    <mergeCell ref="B111:B135"/>
-    <mergeCell ref="B45:B62"/>
-    <mergeCell ref="B63:B80"/>
-    <mergeCell ref="A33:A80"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="B101:B118"/>
+    <mergeCell ref="B119:B143"/>
+    <mergeCell ref="B49:B66"/>
+    <mergeCell ref="B67:B84"/>
+    <mergeCell ref="A37:A84"/>
     <mergeCell ref="B15:B32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13539,473 +16513,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="117" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showRuler="0" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="6" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:13" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="70" t="str">
-        <f t="shared" ref="H3:I10" si="0">LEFT(TEXT(L3,"0.00E+0"),4) &amp; "∙10^" &amp; RIGHT(TEXT(L3,"0.00E+0"),2)</f>
-        <v>3.28∙10^-5</v>
-      </c>
-      <c r="I3" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>9.22∙10^+4</v>
-      </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="67">
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="L3" s="67">
-        <v>3.2820000000000001E-5</v>
-      </c>
-      <c r="M3" s="67">
-        <v>92190</v>
-      </c>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="66" t="str">
-        <f>LEFT(TEXT(K4,"0.00E+0"),4) &amp; "∙10^" &amp; RIGHT(TEXT(K4,"0.00E+0"),2)</f>
-        <v>1.23∙10^-3</v>
-      </c>
-      <c r="H4" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>1.69∙10^-4</v>
-      </c>
-      <c r="I4" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>5.04∙10^+3</v>
-      </c>
-      <c r="K4" s="68">
-        <v>1.232E-3</v>
-      </c>
-      <c r="L4" s="68">
-        <v>1.685E-4</v>
-      </c>
-      <c r="M4" s="68">
-        <v>5036</v>
-      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="137" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="141">
         <v>318</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="137" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="68">
-        <v>0.46910000000000002</v>
-      </c>
-      <c r="L5" s="68">
-        <v>318.28489999999999</v>
-      </c>
-      <c r="M5" s="68">
-        <v>0.53110000000000002</v>
-      </c>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="138" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="137" t="s">
         <v>235</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="138" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="68">
-        <v>-1.118276E-2</v>
-      </c>
-      <c r="L6" s="68">
-        <v>97.340549359999997</v>
-      </c>
-      <c r="M6" s="68">
-        <v>1.117916E-2</v>
-      </c>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
     </row>
     <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="79" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="140">
         <v>220</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="138" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="68">
-        <v>-10.511351899999999</v>
-      </c>
-      <c r="L7" s="68">
-        <v>219.57575030000001</v>
-      </c>
-      <c r="M7" s="68">
-        <v>10.503126999999999</v>
-      </c>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
     </row>
     <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="70" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="H8" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>4.36∙10^-5</v>
-      </c>
-      <c r="I8" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>7.65∙10^+4</v>
-      </c>
-      <c r="K8" s="68">
-        <v>0.91820000000000002</v>
-      </c>
-      <c r="L8" s="68">
-        <v>4.3619999999999999E-5</v>
-      </c>
-      <c r="M8" s="68">
-        <v>76480</v>
-      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="70" t="str">
-        <f t="shared" ref="G9:G10" si="1">LEFT(TEXT(K9,"0.00E+0"),4) &amp; "∙10^" &amp; RIGHT(TEXT(K9,"0.00E+0"),2)</f>
-        <v>1.24∙10^-3</v>
-      </c>
-      <c r="H9" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>1.65∙10^-4</v>
-      </c>
-      <c r="I9" s="70" t="str">
-        <f t="shared" si="0"/>
-        <v>5.22∙10^+3</v>
-      </c>
-      <c r="K9" s="68">
-        <v>1.242E-3</v>
-      </c>
-      <c r="L9" s="68">
-        <v>1.6479999999999999E-4</v>
-      </c>
-      <c r="M9" s="68">
-        <v>5223</v>
-      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>4.53∙10^-6</v>
-      </c>
-      <c r="H10" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>-1.6∙10^-5</v>
-      </c>
-      <c r="I10" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="69">
-        <v>4.5252630000000001E-6</v>
-      </c>
-      <c r="L10" s="69">
-        <v>-1.6030789999999998E-5</v>
-      </c>
-      <c r="M10" s="69"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14017,18 +16918,19 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showRuler="0" zoomScale="118" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14036,89 +16938,151 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="22" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+    </row>
+    <row r="2" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="73"/>
-    </row>
-    <row r="3" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="B2" s="23"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="B3" s="25"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="146"/>
+    </row>
+    <row r="4" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="73"/>
-    </row>
-    <row r="5" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="B4" s="23"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+    </row>
+    <row r="5" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73"/>
-    </row>
-    <row r="6" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
-    </row>
-    <row r="7" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="73"/>
-    </row>
-    <row r="8" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="73"/>
-    </row>
-    <row r="9" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="73"/>
-    </row>
-    <row r="10" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="73"/>
-    </row>
-    <row r="11" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14128,76 +17092,84 @@
     <col min="3" max="4" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103" t="s">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="103"/>
-    </row>
-    <row r="2" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="D1" s="151"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="17">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="17">
         <v>4</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="155">
         <v>4</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="155" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="155" t="s">
         <v>244</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="146"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabela_aic.xlsx
+++ b/tabela_aic.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisanovara/Documents/LABTROP_LET/Mestrado/Dissertação/dissertacao2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="25160" windowHeight="13560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="25160" windowHeight="13560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="selecao_modelos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">coeficientes_modelos_selecionad!$A$1:$I$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">selecao_modelos!$A$87:$H$143</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">selecao_modelos!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="252">
   <si>
     <t>Linear</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Variância total do índice de estratégia de vida</t>
   </si>
   <si>
-    <t>Adaptação</t>
-  </si>
-  <si>
-    <t>Exclusão competitiva</t>
-  </si>
-  <si>
     <t>1821,8</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Função</t>
   </si>
   <si>
-    <t>Adaptação      +       Exclusão competitiva</t>
-  </si>
-  <si>
     <t>Variância interespecífica do índice de estratégia de vida</t>
   </si>
   <si>
@@ -717,12 +708,6 @@
     <t>Fórmula</t>
   </si>
   <si>
-    <t>Adaptação + Exclusão</t>
-  </si>
-  <si>
-    <t>Exclusão</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
@@ -793,6 +778,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Evolutivo</t>
+  </si>
+  <si>
+    <t>Ecológico</t>
+  </si>
+  <si>
+    <t>Eco-evolutivo</t>
+  </si>
+  <si>
+    <t>Eco - evolutivo</t>
   </si>
 </sst>
 </file>
@@ -803,7 +800,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00E+0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,6 +921,29 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria Math"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1223,7 +1243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,9 +1306,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,27 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,12 +1339,6 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,12 +1349,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,12 +1363,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1394,20 +1372,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1421,12 +1390,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1436,14 +1399,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1457,32 +1414,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,35 +1426,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1535,12 +1450,6 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,12 +1462,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1566,9 +1469,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,15 +1498,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,12 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,13 +1550,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1684,6 +1563,162 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1958,8 +1993,8 @@
       <xdr:rowOff>146628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="470766" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2017,7 +2052,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2131,8 +2166,8 @@
       <xdr:rowOff>146628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="470766" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2190,7 +2225,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -6084,8 +6119,8 @@
       <xdr:rowOff>122766</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -6121,6 +6156,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6160,7 +6196,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -6224,8 +6260,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619208" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -6261,6 +6297,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6300,7 +6337,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -6364,8 +6401,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619208" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -6401,6 +6438,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6440,7 +6478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -6504,8 +6542,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -6541,6 +6579,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6580,7 +6619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -6644,8 +6683,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -6681,6 +6720,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6720,7 +6760,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -6784,8 +6824,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619208" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -6821,6 +6861,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6860,7 +6901,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -6924,8 +6965,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -6961,6 +7002,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7000,7 +7042,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -7064,8 +7106,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="721416" cy="177741"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -7101,6 +7143,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7140,7 +7183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -7204,8 +7247,8 @@
       <xdr:rowOff>131233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -7241,6 +7284,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7280,7 +7324,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -7349,8 +7393,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>302369</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -7517,7 +7561,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -7678,8 +7722,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>301663</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -7846,7 +7890,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -8007,8 +8051,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>302369</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -8155,13 +8199,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" charset="0"/>
                           </a:rPr>
-                          <m:t>5</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" charset="0"/>
-                          </a:rPr>
-                          <m:t>,22∙10</m:t>
+                          <m:t>5,22∙10</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -8181,7 +8219,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -13352,8 +13390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A164" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView showRuler="0" topLeftCell="A100" zoomScaleNormal="216" zoomScalePageLayoutView="216" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13369,3104 +13407,3104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="116"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81" t="s">
+      <c r="F2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35">
+        <v>4</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="120"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38">
+        <v>4</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="120"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="44" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="120"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="38">
+        <v>4</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="120"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="38">
+        <v>4</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="120"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="D8" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="38">
+        <v>4</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="120"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38">
+        <v>4</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="120"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
         <v>3</v>
       </c>
-      <c r="F3" s="45">
+      <c r="G10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="120"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="44">
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="120"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="38">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="120"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="38">
+        <v>2</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="37">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="120"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="43">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="120"/>
+      <c r="B15" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="45">
+        <v>4</v>
+      </c>
+      <c r="G15" s="58">
+        <v>-17313.2</v>
+      </c>
+      <c r="H15" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="50">
+    <row r="16" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="120"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="46">
+        <v>5</v>
+      </c>
+      <c r="G16" s="59">
+        <v>-17168.3</v>
+      </c>
+      <c r="H16" s="59">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="120"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="38">
         <v>4</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <v>3</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>4</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="50">
-        <v>4</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="49">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="50">
-        <v>4</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="50">
-        <v>4</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="49">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="50">
-        <v>3</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="50">
-        <v>3</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="50">
-        <v>3</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="50">
-        <v>2</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="49">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="57">
-        <v>2</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="60">
-        <v>4</v>
-      </c>
-      <c r="G15" s="83">
-        <v>-17313.2</v>
-      </c>
-      <c r="H15" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="61">
-        <v>5</v>
-      </c>
-      <c r="G16" s="84">
-        <v>-17168.3</v>
-      </c>
-      <c r="H16" s="84">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="50">
-        <v>4</v>
-      </c>
-      <c r="G17" s="49">
+      <c r="G17" s="37">
         <v>-15313.7</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="59">
         <v>1999.4</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="51" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="52" t="s">
+      <c r="D18" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="46">
         <v>4</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="37">
         <v>-14617.2</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="59">
         <v>2695.9</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="120"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="46">
         <v>3</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="59">
         <v>-14095.6</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="59">
         <v>3217.6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="51" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="52" t="s">
+      <c r="D20" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="46">
         <v>3</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="59">
         <v>-14067.6</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="59">
         <v>3245.6</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="46">
         <v>4</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="59">
         <v>-13906.7</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="59">
         <v>3406.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="46">
         <v>4</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="37">
         <v>-13887.1</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="59">
         <v>3426.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="D23" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="46">
         <v>2</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="37">
         <v>-13868.8</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="59">
         <v>3444.3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="51" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="52" t="s">
+      <c r="D24" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="46">
         <v>3</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="37">
         <v>-13635.3</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="59">
         <v>3677.9</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="51" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="46">
         <v>3</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="37">
         <v>-13606.3</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="59">
         <v>3706.9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="120"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="52" t="s">
+      <c r="D26" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="46">
         <v>4</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="37">
         <v>-13581.5</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="59">
         <v>3731.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="51" t="s">
+      <c r="A27" s="120"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="46">
         <v>2</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="37">
         <v>-13458.3</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="59">
         <v>3854.9</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="52" t="s">
+      <c r="D28" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="46">
         <v>4</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="37">
         <v>-13354</v>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="59">
         <v>3959.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="46">
         <v>4</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="37">
         <v>-10336.6</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="59">
         <v>6976.6</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="52" t="s">
+      <c r="D30" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="46">
         <v>5</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="37">
         <v>-5353.7</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="59">
         <v>11959.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="49" t="s">
+      <c r="D31" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="38">
         <v>4</v>
       </c>
-      <c r="G31" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" s="72"/>
+      <c r="G31" s="109" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="110"/>
     </row>
     <row r="32" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="55" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="43">
         <v>4</v>
       </c>
-      <c r="G32" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="79"/>
+      <c r="G32" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="112"/>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="116"/>
+    </row>
+    <row r="36" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82" t="s">
+      <c r="F36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="61">
+        <v>4</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="144"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="46">
+        <v>4</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="144"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="46">
+        <v>4</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="144"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="46">
+        <v>4</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="144"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="46">
+        <v>3</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="144"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="46">
+        <v>3</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="144"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="46">
+        <v>2</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="144"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="46">
+        <v>3</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="144"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="46">
+        <v>3</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="144"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="39">
+        <v>-3279</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="144"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="46">
+        <v>4</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="37">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="144"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="49">
+        <v>4</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="144"/>
+      <c r="B49" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="52">
+        <v>4</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="144"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="53">
+        <v>4</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="144"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="53">
+        <v>4</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="144"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="53">
+        <v>4</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="144"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="53">
+        <v>3</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="59">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="144"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="53">
+        <v>2</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="59">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="144"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="53">
+        <v>3</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="144"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="53">
+        <v>5</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="144"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="53">
+        <v>3</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="144"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="53">
+        <v>3</v>
+      </c>
+      <c r="G58" s="59">
+        <v>-9508</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="144"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="53">
+        <v>4</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="144"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="53">
+        <v>4</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="144"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="53">
+        <v>4</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="144"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="53">
+        <v>5</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="144"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="53">
+        <v>4</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="144"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="53">
+        <v>4</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="144"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="53">
+        <v>3</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="144"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="55">
+        <v>2</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="144"/>
+      <c r="B67" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="52">
+        <v>4</v>
+      </c>
+      <c r="G67" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="144"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="53">
+        <v>4</v>
+      </c>
+      <c r="G68" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="144"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="53">
+        <v>2</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="144"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="53">
+        <v>4</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="59">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="144"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="53">
+        <v>5</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="144"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="53">
+        <v>4</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="144"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="53">
+        <v>3</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="144"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="53">
+        <v>4</v>
+      </c>
+      <c r="G74" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="144"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="53">
+        <v>4</v>
+      </c>
+      <c r="G75" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="144"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="53">
+        <v>3</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" s="59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="144"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="53">
+        <v>4</v>
+      </c>
+      <c r="G77" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="144"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="53">
+        <v>3</v>
+      </c>
+      <c r="G78" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="144"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="53">
+        <v>5</v>
+      </c>
+      <c r="G79" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="144"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="53">
+        <v>2</v>
+      </c>
+      <c r="G80" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80" s="59">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="144"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="53">
+        <v>4</v>
+      </c>
+      <c r="G81" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="59">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="144"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="53">
+        <v>4</v>
+      </c>
+      <c r="G82" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="144"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="38">
+        <v>4</v>
+      </c>
+      <c r="G83" s="109" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="110"/>
+    </row>
+    <row r="84" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="145"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="43">
+        <v>3</v>
+      </c>
+      <c r="G84" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="112"/>
+    </row>
+    <row r="85" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="64"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+    </row>
+    <row r="87" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="118"/>
+    </row>
+    <row r="88" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="82"/>
-    </row>
-    <row r="36" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="37" t="s">
+      <c r="D88" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="87" t="s">
+      <c r="G88" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="69"/>
+    </row>
+    <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C89" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="89">
+      <c r="D89" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="72">
         <v>4</v>
       </c>
-      <c r="G37" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="78">
+      <c r="G89" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="61">
-        <v>4</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="51" t="s">
+    <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="129"/>
+      <c r="B90" s="132"/>
+      <c r="C90" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="61">
-        <v>4</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="61">
-        <v>4</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="61">
-        <v>3</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="61">
-        <v>3</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="61">
-        <v>2</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="61">
-        <v>3</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="49">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="61">
-        <v>3</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="61">
-        <v>2</v>
-      </c>
-      <c r="G46" s="51">
-        <v>-3279</v>
-      </c>
-      <c r="H46" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="61">
-        <v>4</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="49">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="67">
-        <v>4</v>
-      </c>
-      <c r="G48" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="71">
-        <v>4</v>
-      </c>
-      <c r="G49" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="73">
-        <v>4</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="73">
-        <v>4</v>
-      </c>
-      <c r="G51" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="73">
-        <v>4</v>
-      </c>
-      <c r="G52" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="73">
-        <v>3</v>
-      </c>
-      <c r="G53" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="84">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="73">
-        <v>2</v>
-      </c>
-      <c r="G54" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="84">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="73">
-        <v>3</v>
-      </c>
-      <c r="G55" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="73">
-        <v>5</v>
-      </c>
-      <c r="G56" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="73">
-        <v>3</v>
-      </c>
-      <c r="G57" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" s="84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="73">
-        <v>3</v>
-      </c>
-      <c r="G58" s="84">
-        <v>-9508</v>
-      </c>
-      <c r="H58" s="84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="73">
-        <v>4</v>
-      </c>
-      <c r="G59" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="H59" s="84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="73">
-        <v>4</v>
-      </c>
-      <c r="G60" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="73">
-        <v>4</v>
-      </c>
-      <c r="G61" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="H61" s="84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="73">
-        <v>5</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="73">
-        <v>4</v>
-      </c>
-      <c r="G63" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="73">
-        <v>4</v>
-      </c>
-      <c r="G64" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="73">
-        <v>3</v>
-      </c>
-      <c r="G65" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="H65" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="76">
-        <v>2</v>
-      </c>
-      <c r="G66" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="H66" s="77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
-      <c r="B67" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="71">
-        <v>4</v>
-      </c>
-      <c r="G67" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="H67" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="73">
-        <v>4</v>
-      </c>
-      <c r="G68" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="H68" s="84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="73">
-        <v>2</v>
-      </c>
-      <c r="G69" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="73">
-        <v>4</v>
-      </c>
-      <c r="G70" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="84">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="73">
-        <v>5</v>
-      </c>
-      <c r="G71" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="H71" s="84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="73">
-        <v>4</v>
-      </c>
-      <c r="G72" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="H72" s="84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="73">
-        <v>3</v>
-      </c>
-      <c r="G73" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="73">
-        <v>4</v>
-      </c>
-      <c r="G74" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="H74" s="84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="73">
-        <v>4</v>
-      </c>
-      <c r="G75" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="H75" s="84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="73">
-        <v>3</v>
-      </c>
-      <c r="G76" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" s="84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="73">
-        <v>4</v>
-      </c>
-      <c r="G77" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="73">
-        <v>3</v>
-      </c>
-      <c r="G78" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="73">
-        <v>5</v>
-      </c>
-      <c r="G79" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="H79" s="84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="73">
-        <v>2</v>
-      </c>
-      <c r="G80" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="H80" s="84">
-        <v>6584</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="73">
-        <v>4</v>
-      </c>
-      <c r="G81" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="H81" s="84">
-        <v>6588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="73">
-        <v>4</v>
-      </c>
-      <c r="G82" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="84" t="s">
+      <c r="D90" s="4" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="50">
-        <v>4</v>
-      </c>
-      <c r="G83" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="H83" s="72"/>
-    </row>
-    <row r="84" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="90"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E84" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="57">
-        <v>3</v>
-      </c>
-      <c r="G84" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="H84" s="79"/>
-    </row>
-    <row r="85" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="97"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-    </row>
-    <row r="86" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="91"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-    </row>
-    <row r="87" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="99"/>
-    </row>
-    <row r="88" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="H88" s="104"/>
-    </row>
-    <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="109">
-        <v>4</v>
-      </c>
-      <c r="G89" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="H89" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="111"/>
-      <c r="B90" s="112"/>
-      <c r="C90" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F90" s="114">
+      <c r="F90" s="75">
         <v>4</v>
       </c>
-      <c r="G90" s="115" t="s">
-        <v>66</v>
+      <c r="G90" s="76" t="s">
+        <v>63</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="111"/>
-      <c r="B91" s="112"/>
-      <c r="C91" s="113" t="s">
+      <c r="A91" s="129"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F91" s="114">
+      <c r="F91" s="75">
         <v>3</v>
       </c>
-      <c r="G91" s="115" t="s">
-        <v>67</v>
+      <c r="G91" s="76" t="s">
+        <v>64</v>
       </c>
       <c r="H91" s="4">
         <v>2004</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="111"/>
-      <c r="B92" s="112"/>
-      <c r="C92" s="113" t="s">
+      <c r="A92" s="129"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F92" s="114">
+      <c r="F92" s="75">
         <v>4</v>
       </c>
-      <c r="G92" s="115" t="s">
-        <v>68</v>
+      <c r="G92" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="111"/>
-      <c r="B93" s="112"/>
-      <c r="C93" s="113" t="s">
+      <c r="A93" s="129"/>
+      <c r="B93" s="132"/>
+      <c r="C93" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="114">
+      <c r="F93" s="75">
         <v>4</v>
       </c>
-      <c r="G93" s="115" t="s">
-        <v>69</v>
+      <c r="G93" s="76" t="s">
+        <v>66</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="111"/>
-      <c r="B94" s="112"/>
-      <c r="C94" s="113" t="s">
+      <c r="A94" s="129"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F94" s="114">
+      <c r="F94" s="75">
         <v>4</v>
       </c>
-      <c r="G94" s="115" t="s">
-        <v>70</v>
+      <c r="G94" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="H94" s="4">
         <v>2836</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="111"/>
-      <c r="B95" s="112"/>
-      <c r="C95" s="113" t="s">
+      <c r="A95" s="129"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="114">
+      <c r="F95" s="75">
         <v>4</v>
       </c>
-      <c r="G95" s="115" t="s">
-        <v>71</v>
+      <c r="G95" s="76" t="s">
+        <v>68</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="111"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="113" t="s">
+      <c r="A96" s="129"/>
+      <c r="B96" s="132"/>
+      <c r="C96" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F96" s="114">
+      <c r="F96" s="75">
         <v>3</v>
       </c>
-      <c r="G96" s="115" t="s">
-        <v>72</v>
+      <c r="G96" s="76" t="s">
+        <v>69</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="111"/>
-      <c r="B97" s="112"/>
-      <c r="C97" s="113" t="s">
+      <c r="A97" s="129"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="114">
+      <c r="F97" s="75">
         <v>3</v>
       </c>
-      <c r="G97" s="115" t="s">
-        <v>73</v>
+      <c r="G97" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="H97" s="4">
         <v>3723</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="111"/>
-      <c r="B98" s="112"/>
-      <c r="C98" s="113" t="s">
+      <c r="A98" s="129"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="114">
+      <c r="F98" s="75">
         <v>3</v>
       </c>
-      <c r="G98" s="115" t="s">
-        <v>74</v>
+      <c r="G98" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="111"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="113" t="s">
+      <c r="A99" s="129"/>
+      <c r="B99" s="132"/>
+      <c r="C99" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F99" s="114">
+      <c r="F99" s="75">
         <v>2</v>
       </c>
-      <c r="G99" s="115" t="s">
-        <v>29</v>
+      <c r="G99" s="76" t="s">
+        <v>27</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="111"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="113" t="s">
+      <c r="A100" s="129"/>
+      <c r="B100" s="133"/>
+      <c r="C100" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="117" t="s">
-        <v>179</v>
+      <c r="D100" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="118">
+      <c r="F100" s="78">
         <v>2</v>
       </c>
-      <c r="G100" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="H100" s="117" t="s">
-        <v>63</v>
+      <c r="G100" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" s="77" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="111"/>
-      <c r="B101" s="106" t="s">
+      <c r="A101" s="129"/>
+      <c r="B101" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="107" t="s">
+      <c r="C101" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" s="108" t="s">
+      <c r="D101" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="121">
+      <c r="F101" s="81">
         <v>4</v>
       </c>
-      <c r="G101" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="H101" s="122">
+      <c r="G101" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H101" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="111"/>
-      <c r="B102" s="112"/>
-      <c r="C102" s="113" t="s">
+      <c r="A102" s="129"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="123">
+      <c r="F102" s="83">
         <v>5</v>
       </c>
-      <c r="G102" s="124" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" s="124" t="s">
-        <v>128</v>
+      <c r="G102" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H102" s="84" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="111"/>
-      <c r="B103" s="112"/>
-      <c r="C103" s="113" t="s">
+      <c r="A103" s="129"/>
+      <c r="B103" s="132"/>
+      <c r="C103" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="123">
+      <c r="F103" s="83">
         <v>4</v>
       </c>
-      <c r="G103" s="124">
+      <c r="G103" s="84">
         <v>-15161</v>
       </c>
-      <c r="H103" s="124" t="s">
-        <v>129</v>
+      <c r="H103" s="84" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="111"/>
-      <c r="B104" s="112"/>
-      <c r="C104" s="113" t="s">
+      <c r="A104" s="129"/>
+      <c r="B104" s="132"/>
+      <c r="C104" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="123">
+      <c r="F104" s="83">
         <v>4</v>
       </c>
-      <c r="G104" s="124" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>131</v>
+      <c r="G104" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="H104" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="111"/>
-      <c r="B105" s="112"/>
-      <c r="C105" s="113" t="s">
+      <c r="A105" s="129"/>
+      <c r="B105" s="132"/>
+      <c r="C105" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="123">
+      <c r="F105" s="83">
         <v>4</v>
       </c>
-      <c r="G105" s="124" t="s">
-        <v>132</v>
-      </c>
-      <c r="H105" s="124" t="s">
-        <v>133</v>
+      <c r="G105" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="H105" s="84" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="111"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="113" t="s">
+      <c r="A106" s="129"/>
+      <c r="B106" s="132"/>
+      <c r="C106" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="123">
+      <c r="F106" s="83">
         <v>3</v>
       </c>
-      <c r="G106" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="H106" s="124" t="s">
-        <v>135</v>
+      <c r="G106" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="H106" s="84" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="111"/>
-      <c r="B107" s="112"/>
-      <c r="C107" s="113" t="s">
+      <c r="A107" s="129"/>
+      <c r="B107" s="132"/>
+      <c r="C107" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="123">
+      <c r="F107" s="83">
         <v>3</v>
       </c>
-      <c r="G107" s="124">
+      <c r="G107" s="84">
         <v>-13971</v>
       </c>
-      <c r="H107" s="124" t="s">
-        <v>136</v>
+      <c r="H107" s="84" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="111"/>
-      <c r="B108" s="112"/>
-      <c r="C108" s="113" t="s">
+      <c r="A108" s="129"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F108" s="123">
+      <c r="F108" s="83">
         <v>4</v>
       </c>
-      <c r="G108" s="124">
+      <c r="G108" s="84">
         <v>-13846</v>
       </c>
-      <c r="H108" s="124" t="s">
-        <v>137</v>
+      <c r="H108" s="84" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="111"/>
-      <c r="B109" s="112"/>
-      <c r="C109" s="113" t="s">
+      <c r="A109" s="129"/>
+      <c r="B109" s="132"/>
+      <c r="C109" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F109" s="123">
+      <c r="F109" s="83">
         <v>4</v>
       </c>
-      <c r="G109" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="H109" s="124">
+      <c r="G109" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="H109" s="84">
         <v>2496</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="111"/>
-      <c r="B110" s="112"/>
-      <c r="C110" s="113" t="s">
+      <c r="A110" s="129"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="123">
+      <c r="F110" s="83">
         <v>2</v>
       </c>
-      <c r="G110" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="H110" s="124" t="s">
-        <v>140</v>
+      <c r="G110" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" s="84" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="111"/>
-      <c r="B111" s="112"/>
-      <c r="C111" s="113" t="s">
+      <c r="A111" s="129"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="123">
+      <c r="F111" s="83">
         <v>3</v>
       </c>
-      <c r="G111" s="124">
+      <c r="G111" s="84">
         <v>-13572</v>
       </c>
-      <c r="H111" s="124" t="s">
-        <v>141</v>
+      <c r="H111" s="84" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="111"/>
-      <c r="B112" s="112"/>
-      <c r="C112" s="113" t="s">
+      <c r="A112" s="129"/>
+      <c r="B112" s="132"/>
+      <c r="C112" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="123">
+      <c r="F112" s="83">
         <v>3</v>
       </c>
-      <c r="G112" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="H112" s="124" t="s">
-        <v>143</v>
+      <c r="G112" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H112" s="84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="111"/>
-      <c r="B113" s="112"/>
-      <c r="C113" s="113" t="s">
+      <c r="A113" s="129"/>
+      <c r="B113" s="132"/>
+      <c r="C113" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F113" s="123">
+      <c r="F113" s="83">
         <v>4</v>
       </c>
-      <c r="G113" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="H113" s="124" t="s">
-        <v>145</v>
+      <c r="G113" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="84" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="111"/>
-      <c r="B114" s="112"/>
-      <c r="C114" s="113" t="s">
+      <c r="A114" s="129"/>
+      <c r="B114" s="132"/>
+      <c r="C114" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F114" s="123">
+      <c r="F114" s="83">
         <v>2</v>
       </c>
-      <c r="G114" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="H114" s="124">
+      <c r="G114" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="H114" s="84">
         <v>2905</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="111"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="113" t="s">
+      <c r="A115" s="129"/>
+      <c r="B115" s="132"/>
+      <c r="C115" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="123">
+      <c r="F115" s="83">
         <v>4</v>
       </c>
-      <c r="G115" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="H115" s="124" t="s">
-        <v>148</v>
+      <c r="G115" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="H115" s="84" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="111"/>
-      <c r="B116" s="112"/>
-      <c r="C116" s="113" t="s">
+      <c r="A116" s="129"/>
+      <c r="B116" s="132"/>
+      <c r="C116" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="123">
+      <c r="F116" s="83">
         <v>5</v>
       </c>
-      <c r="G116" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="H116" s="124" t="s">
-        <v>150</v>
+      <c r="G116" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="H116" s="84" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="111"/>
-      <c r="B117" s="112"/>
-      <c r="C117" s="113" t="s">
+      <c r="A117" s="129"/>
+      <c r="B117" s="132"/>
+      <c r="C117" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="123">
+      <c r="F117" s="83">
         <v>4</v>
       </c>
-      <c r="G117" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="H117" s="124" t="s">
-        <v>152</v>
+      <c r="G117" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H117" s="84" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="111"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="115" t="s">
+      <c r="A118" s="129"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="E118" s="117" t="s">
+      <c r="D118" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F118" s="125">
+      <c r="F118" s="85">
         <v>4</v>
       </c>
-      <c r="G118" s="126" t="s">
-        <v>241</v>
-      </c>
-      <c r="H118" s="127"/>
+      <c r="G118" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="H118" s="114"/>
     </row>
     <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="111"/>
-      <c r="B119" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" s="107" t="s">
+      <c r="A119" s="129"/>
+      <c r="B119" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="E119" s="120" t="s">
+      <c r="D119" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="121">
+      <c r="F119" s="81">
         <v>3</v>
       </c>
-      <c r="G119" s="130" t="s">
-        <v>180</v>
-      </c>
-      <c r="H119" s="130">
+      <c r="G119" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H119" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="111"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="113" t="s">
+      <c r="A120" s="129"/>
+      <c r="B120" s="134"/>
+      <c r="C120" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="123">
+      <c r="F120" s="83">
         <v>3</v>
       </c>
-      <c r="G120" s="131">
+      <c r="G120" s="88">
         <v>-1474</v>
       </c>
-      <c r="H120" s="131" t="s">
-        <v>181</v>
+      <c r="H120" s="88" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="111"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="113" t="s">
+      <c r="A121" s="129"/>
+      <c r="B121" s="134"/>
+      <c r="C121" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="123">
+      <c r="F121" s="83">
         <v>3</v>
       </c>
-      <c r="G121" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="H121" s="131">
+      <c r="G121" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="H121" s="88">
         <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="111"/>
-      <c r="B122" s="128"/>
-      <c r="C122" s="113" t="s">
+      <c r="A122" s="129"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F122" s="123">
+        <v>174</v>
+      </c>
+      <c r="F122" s="83">
         <v>4</v>
       </c>
-      <c r="G122" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="H122" s="131" t="s">
-        <v>184</v>
+      <c r="G122" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="H122" s="88" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="111"/>
-      <c r="B123" s="128"/>
-      <c r="C123" s="113" t="s">
+      <c r="A123" s="129"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F123" s="123">
+      <c r="F123" s="83">
         <v>3</v>
       </c>
-      <c r="G123" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="H123" s="131" t="s">
-        <v>186</v>
+      <c r="G123" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="H123" s="88" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="111"/>
-      <c r="B124" s="128"/>
-      <c r="C124" s="113" t="s">
+      <c r="A124" s="129"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="123">
+      <c r="F124" s="83">
         <v>4</v>
       </c>
-      <c r="G124" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="H124" s="131" t="s">
-        <v>27</v>
+      <c r="G124" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="H124" s="88" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="111"/>
-      <c r="B125" s="128"/>
-      <c r="C125" s="113" t="s">
+      <c r="A125" s="129"/>
+      <c r="B125" s="134"/>
+      <c r="C125" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="123">
+      <c r="F125" s="83">
         <v>4</v>
       </c>
-      <c r="G125" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="H125" s="131" t="s">
-        <v>28</v>
+      <c r="G125" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="H125" s="88" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="111"/>
-      <c r="B126" s="128"/>
-      <c r="C126" s="113" t="s">
+      <c r="A126" s="129"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="123">
+      <c r="F126" s="83">
         <v>2</v>
       </c>
-      <c r="G126" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="H126" s="131" t="s">
-        <v>29</v>
+      <c r="G126" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="H126" s="88" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="111"/>
-      <c r="B127" s="128"/>
-      <c r="C127" s="113" t="s">
+      <c r="A127" s="129"/>
+      <c r="B127" s="134"/>
+      <c r="C127" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F127" s="123">
+        <v>174</v>
+      </c>
+      <c r="F127" s="83">
         <v>4</v>
       </c>
-      <c r="G127" s="131" t="s">
-        <v>190</v>
-      </c>
-      <c r="H127" s="131" t="s">
-        <v>191</v>
+      <c r="G127" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="H127" s="88" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="111"/>
-      <c r="B128" s="128"/>
-      <c r="C128" s="113" t="s">
+      <c r="A128" s="129"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="74" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="123">
+      <c r="F128" s="83">
         <v>2</v>
       </c>
-      <c r="G128" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="H128" s="131" t="s">
-        <v>38</v>
+      <c r="G128" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="H128" s="88" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="111"/>
-      <c r="B129" s="128"/>
-      <c r="C129" s="113" t="s">
+      <c r="A129" s="129"/>
+      <c r="B129" s="134"/>
+      <c r="C129" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="123">
+      <c r="F129" s="83">
         <v>4</v>
       </c>
-      <c r="G129" s="131" t="s">
-        <v>193</v>
-      </c>
-      <c r="H129" s="131">
+      <c r="G129" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="H129" s="88">
         <v>932</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="111"/>
-      <c r="B130" s="128"/>
-      <c r="C130" s="113" t="s">
+      <c r="A130" s="129"/>
+      <c r="B130" s="134"/>
+      <c r="C130" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="123">
+      <c r="F130" s="83">
         <v>3</v>
       </c>
-      <c r="G130" s="131" t="s">
-        <v>194</v>
-      </c>
-      <c r="H130" s="131" t="s">
-        <v>195</v>
+      <c r="G130" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="H130" s="88" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="111"/>
-      <c r="B131" s="128"/>
-      <c r="C131" s="113" t="s">
+      <c r="A131" s="129"/>
+      <c r="B131" s="134"/>
+      <c r="C131" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F131" s="123">
+        <v>174</v>
+      </c>
+      <c r="F131" s="83">
         <v>4</v>
       </c>
-      <c r="G131" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="H131" s="131">
+      <c r="G131" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="H131" s="88">
         <v>1497</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="111"/>
-      <c r="B132" s="128"/>
-      <c r="C132" s="113" t="s">
+      <c r="A132" s="129"/>
+      <c r="B132" s="134"/>
+      <c r="C132" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="123">
+      <c r="F132" s="83">
         <v>4</v>
       </c>
-      <c r="G132" s="131">
+      <c r="G132" s="88">
         <v>-42</v>
       </c>
-      <c r="H132" s="131" t="s">
-        <v>197</v>
+      <c r="H132" s="88" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="111"/>
-      <c r="B133" s="128"/>
-      <c r="C133" s="113" t="s">
+      <c r="A133" s="129"/>
+      <c r="B133" s="134"/>
+      <c r="C133" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="123">
+      <c r="F133" s="83">
         <v>3</v>
       </c>
-      <c r="G133" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="H133" s="131" t="s">
-        <v>199</v>
+      <c r="G133" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="H133" s="88" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="111"/>
-      <c r="B134" s="128"/>
-      <c r="C134" s="113" t="s">
+      <c r="A134" s="129"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="123">
+      <c r="F134" s="83">
         <v>3</v>
       </c>
-      <c r="G134" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="H134" s="131" t="s">
-        <v>201</v>
+      <c r="G134" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="H134" s="88" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="111"/>
-      <c r="B135" s="128"/>
-      <c r="C135" s="113" t="s">
+      <c r="A135" s="129"/>
+      <c r="B135" s="134"/>
+      <c r="C135" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F135" s="123">
+      <c r="F135" s="83">
         <v>4</v>
       </c>
-      <c r="G135" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="H135" s="131" t="s">
-        <v>203</v>
+      <c r="G135" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="H135" s="88" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="111"/>
-      <c r="B136" s="128"/>
-      <c r="C136" s="113" t="s">
+      <c r="A136" s="129"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F136" s="123">
+      <c r="F136" s="83">
         <v>3</v>
       </c>
-      <c r="G136" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="H136" s="131" t="s">
-        <v>205</v>
+      <c r="G136" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="H136" s="88" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="111"/>
-      <c r="B137" s="128"/>
-      <c r="C137" s="113" t="s">
+      <c r="A137" s="129"/>
+      <c r="B137" s="134"/>
+      <c r="C137" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="123">
+      <c r="F137" s="83">
         <v>2</v>
       </c>
-      <c r="G137" s="131" t="s">
-        <v>206</v>
-      </c>
-      <c r="H137" s="131" t="s">
-        <v>207</v>
+      <c r="G137" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="H137" s="88" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="111"/>
-      <c r="B138" s="128"/>
-      <c r="C138" s="113" t="s">
+      <c r="A138" s="129"/>
+      <c r="B138" s="134"/>
+      <c r="C138" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F138" s="123">
+      <c r="F138" s="83">
         <v>3</v>
       </c>
-      <c r="G138" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="H138" s="131" t="s">
-        <v>209</v>
+      <c r="G138" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" s="88" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="111"/>
-      <c r="B139" s="128"/>
-      <c r="C139" s="113" t="s">
+      <c r="A139" s="129"/>
+      <c r="B139" s="134"/>
+      <c r="C139" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="123">
+      <c r="F139" s="83">
         <v>3</v>
       </c>
-      <c r="G139" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="H139" s="131" t="s">
-        <v>211</v>
+      <c r="G139" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="H139" s="88" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="111"/>
-      <c r="B140" s="128"/>
-      <c r="C140" s="113" t="s">
+      <c r="A140" s="129"/>
+      <c r="B140" s="134"/>
+      <c r="C140" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F140" s="123">
+      <c r="F140" s="83">
         <v>3</v>
       </c>
-      <c r="G140" s="131" t="s">
+      <c r="G140" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="H140" s="88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="129"/>
+      <c r="B141" s="134"/>
+      <c r="C141" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F141" s="83">
+        <v>6</v>
+      </c>
+      <c r="G141" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="H141" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="H140" s="131" t="s">
+    </row>
+    <row r="142" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="129"/>
+      <c r="B142" s="134"/>
+      <c r="C142" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F142" s="83">
+        <v>4</v>
+      </c>
+      <c r="G142" s="88" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="111"/>
-      <c r="B141" s="128"/>
-      <c r="C141" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F141" s="123">
-        <v>6</v>
-      </c>
-      <c r="G141" s="131" t="s">
+      <c r="H142" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="H141" s="131" t="s">
+    </row>
+    <row r="143" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="130"/>
+      <c r="B143" s="135"/>
+      <c r="C143" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="89">
+        <v>3</v>
+      </c>
+      <c r="G143" s="90" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="111"/>
-      <c r="B142" s="128"/>
-      <c r="C142" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F142" s="123">
-        <v>4</v>
-      </c>
-      <c r="G142" s="131" t="s">
-        <v>216</v>
-      </c>
-      <c r="H142" s="131" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="132"/>
-      <c r="B143" s="133"/>
-      <c r="C143" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="E143" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" s="134">
-        <v>3</v>
-      </c>
-      <c r="G143" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="H143" s="136" t="s">
-        <v>30</v>
+      <c r="H143" s="91" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.2">
@@ -16476,15 +16514,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A32"/>
     <mergeCell ref="B37:B48"/>
@@ -16501,6 +16530,15 @@
     <mergeCell ref="B15:B32"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:H87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -16514,7 +16552,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16527,24 +16565,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
+      <c r="A1" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -16554,236 +16592,236 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="151" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
+      <c r="G3" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>228</v>
+      <c r="A5" s="146" t="s">
+        <v>249</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="137" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="141">
+      <c r="G5" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="96">
         <v>318</v>
       </c>
-      <c r="I5" s="137" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="I5" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="138" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="137" t="s">
+      <c r="G6" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="I6" s="138" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="140">
+      <c r="G7" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="95">
         <v>220</v>
       </c>
-      <c r="I7" s="138" t="s">
-        <v>238</v>
-      </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
+      <c r="I7" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>227</v>
+      <c r="A8" s="146" t="s">
+        <v>251</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="150" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="150" t="s">
+      <c r="D8" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="104" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="144" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
+      <c r="G8" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="140" t="s">
-        <v>252</v>
-      </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
@@ -16797,17 +16835,17 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="A12" s="149" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -16920,7 +16958,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16929,8 +16967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="118" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="118" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16951,125 +16989,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
+      <c r="A1" s="153" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="146"/>
+      <c r="B2" s="154"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="146"/>
+      <c r="A3" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="156"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
+      <c r="B4" s="154"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="154"/>
     </row>
     <row r="6" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="154"/>
     </row>
     <row r="8" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="154"/>
     </row>
     <row r="9" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="154"/>
     </row>
     <row r="10" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="154"/>
     </row>
     <row r="11" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="160"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="4" max="1048575" man="1"/>
   </colBreaks>
@@ -17081,7 +17119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -17093,36 +17131,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="151"/>
+      <c r="A1" s="152" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="152" t="s">
+      <c r="A2" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="153" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="154"/>
+      <c r="C2" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="107"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B3" s="17">
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -17130,37 +17168,37 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B4" s="17">
         <v>4</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="155" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="155">
+      <c r="A5" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="108">
         <v>4</v>
       </c>
-      <c r="C5" s="155" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="155" t="s">
-        <v>244</v>
+      <c r="C5" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="146"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="146"/>
+      <c r="E11" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17169,7 +17207,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>